--- a/menu.xlsx
+++ b/menu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\norrp\apps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\norrp\apps\menu_creator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3015C9F-A31B-45BF-AA42-332970B0C7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB0D8E9-466C-44FD-B9A7-A2FB2FDA100F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{32BBAEAE-F558-4E4D-858C-802A91BC607D}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>P</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>1 por.</t>
+  </si>
+  <si>
+    <t>lipton.png</t>
+  </si>
+  <si>
+    <t>pepsi.png</t>
   </si>
 </sst>
 </file>
@@ -136,46 +142,7 @@
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Walutowy" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -186,18 +153,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A2B48B47-3CE8-44A2-822B-F9604EA35F63}" name="Tabela1" displayName="Tabela1" ref="A1:D3" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E3BE0290-1B3E-4902-BEE6-D6C16C5DC541}" name="Kolumna1"/>
-    <tableColumn id="4" xr3:uid="{A888B5EA-4005-4204-84AB-86216457B40A}" name="Kolumna4"/>
-    <tableColumn id="2" xr3:uid="{486AC367-7A56-4778-9609-BD784B3FD5EE}" name="Kolumna2"/>
-    <tableColumn id="3" xr3:uid="{C77BB39F-83FF-4650-AE68-36A3254D1BE2}" name="Kolumna3" headerRowDxfId="1" dataDxfId="0" headerRowCellStyle="Walutowy" dataCellStyle="Walutowy"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,67 +452,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FCF648-A1CE-435E-B16F-B18F4A9C93B2}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.7265625" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" customWidth="1"/>
+    <col min="2" max="2" width="46.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7265625" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>28</v>
       </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
